--- a/query_recognation/synonim.xlsx
+++ b/query_recognation/synonim.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KULIAH\semester 7\STKI\stki-search\query_recognation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="201">
   <si>
     <t>dosen</t>
   </si>
@@ -32,15 +27,9 @@
     <t>Guru besar</t>
   </si>
   <si>
-    <t>Guru</t>
-  </si>
-  <si>
     <t>Pembimbing</t>
   </si>
   <si>
-    <t>Pendidik</t>
-  </si>
-  <si>
     <t>Pengajar</t>
   </si>
   <si>
@@ -71,9 +60,6 @@
     <t>Mengarahkan</t>
   </si>
   <si>
-    <t>menguliahi</t>
-  </si>
-  <si>
     <t>institut</t>
   </si>
   <si>
@@ -98,18 +84,6 @@
     <t>metode</t>
   </si>
   <si>
-    <t>modus operandi</t>
-  </si>
-  <si>
-    <t>proses</t>
-  </si>
-  <si>
-    <t>siasat</t>
-  </si>
-  <si>
-    <t>sistem</t>
-  </si>
-  <si>
     <t>doktor</t>
   </si>
   <si>
@@ -161,12 +135,6 @@
     <t>tengah</t>
   </si>
   <si>
-    <t>rektor</t>
-  </si>
-  <si>
-    <t>lektor</t>
-  </si>
-  <si>
     <t>rekayasa</t>
   </si>
   <si>
@@ -509,9 +477,6 @@
     <t>tc</t>
   </si>
   <si>
-    <t>teknik informatika</t>
-  </si>
-  <si>
     <t>ITB</t>
   </si>
   <si>
@@ -626,10 +591,37 @@
     <t>medis</t>
   </si>
   <si>
-    <t>lele</t>
-  </si>
-  <si>
-    <t>Universitas</t>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>Universitas Brawijaya</t>
+  </si>
+  <si>
+    <t>UNBRAW</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>SLTP</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>SLTA</t>
+  </si>
+  <si>
+    <t>IPB</t>
+  </si>
+  <si>
+    <t>Institut Pertanian Bogor</t>
+  </si>
+  <si>
+    <t>teknik informatika its</t>
   </si>
 </sst>
 </file>
@@ -715,13 +707,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1004,7 +993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1012,32 +1001,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1"/>
       <c r="I1" s="1"/>
@@ -1060,16 +1049,16 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1091,25 +1080,23 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="K3" s="1"/>
@@ -1129,10 +1116,10 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1158,37 +1145,29 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1205,20 +1184,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1242,13 +1223,13 @@
     </row>
     <row r="7" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1275,13 +1256,13 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1308,16 +1289,16 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1342,10 +1323,10 @@
     </row>
     <row r="10" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1371,18 +1352,18 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1408,10 +1389,10 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1437,12 +1418,12 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1470,12 +1451,14 @@
     </row>
     <row r="14" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1499,12 +1482,12 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1530,15 +1513,15 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1565,11 +1548,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1596,13 +1577,13 @@
     </row>
     <row r="18" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1627,11 +1608,13 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1658,15 +1641,17 @@
     </row>
     <row r="20" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1689,12 +1674,12 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1720,18 +1705,18 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1757,12 +1742,11 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1788,17 +1772,13 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1821,17 +1801,25 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1851,12 +1839,12 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1882,25 +1870,20 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1920,19 +1903,31 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1953,17 +1948,19 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1986,29 +1983,23 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2020,7 +2011,6 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -2029,19 +2019,16 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2070,14 +2057,10 @@
         <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2092,6 +2075,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -2100,16 +2084,17 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2132,14 +2117,10 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2165,16 +2146,20 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2198,9 +2183,11 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2227,20 +2214,16 @@
     </row>
     <row r="37" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2264,10 +2247,10 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2295,14 +2278,12 @@
     </row>
     <row r="39" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2328,12 +2309,14 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2357,14 +2340,16 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2388,19 +2373,25 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2423,18 +2414,26 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2454,25 +2453,19 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2495,26 +2488,22 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2534,15 +2523,15 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2569,20 +2558,16 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2606,13 +2591,13 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2637,16 +2622,14 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2670,15 +2653,15 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2705,13 +2688,17 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2734,16 +2721,14 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2767,19 +2752,17 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2804,14 +2787,20 @@
     </row>
     <row r="54" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2833,15 +2822,15 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2866,7 +2855,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -2876,12 +2865,8 @@
       <c r="C56" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2903,17 +2888,19 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2936,17 +2923,19 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2969,19 +2958,15 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3006,17 +2991,15 @@
     </row>
     <row r="60" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3041,12 +3024,14 @@
     </row>
     <row r="61" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3070,16 +3055,14 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3104,14 +3087,14 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>191</v>
+      <c r="A63" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3138,12 +3121,14 @@
     </row>
     <row r="64" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3167,16 +3152,14 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>197</v>
+    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3200,12 +3183,12 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3231,59 +3214,13 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
+    <row r="67" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/query_recognation/synonim.xlsx
+++ b/query_recognation/synonim.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KULIAH\semester 7\STKI\stki-search\query_recognation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340"/>
   </bookViews>
@@ -993,7 +998,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
